--- a/Privat/Arbeit/Vorlage-Arbeitszeiterfassung.xlsx
+++ b/Privat/Arbeit/Vorlage-Arbeitszeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npawelka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npawelka\Desktop\repo\Home\Privat\Arbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB3E6B-608C-4843-B95A-CEF2D47A9DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB16E6-3068-465A-9CAC-591C0D1A688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="13" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C14" s="17">
         <f>März!L3</f>
-        <v>0.37499999999999978</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <f>März!L7</f>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C25" s="18">
         <f>SUM(C12:C23)+C4</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="D25" s="13">
         <f>SUM(D12:D23)</f>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>45</v>
@@ -5094,9 +5094,9 @@
   </sheetPr>
   <dimension ref="B1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -12621,9 +12621,9 @@
   </sheetPr>
   <dimension ref="B1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12730,7 +12730,7 @@
       </c>
       <c r="L3" s="17">
         <f>I34</f>
-        <v>0.37499999999999978</v>
+        <v>0</v>
       </c>
       <c r="O3" s="23" t="s">
         <v>43</v>
@@ -12775,29 +12775,22 @@
       <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.6875</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" si="1"/>
-        <v>0.23333333333333331</v>
+        <v>0</v>
+      </c>
+      <c r="I5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="17">
-        <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>0</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -12814,20 +12807,16 @@
       <c r="D6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="17">
-        <f t="shared" si="1"/>
-        <v>-0.1</v>
+      <c r="I6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="K6" s="24"/>
       <c r="O6" s="23" t="s">
@@ -12845,20 +12834,16 @@
       <c r="D7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="17">
-        <f t="shared" si="1"/>
-        <v>-0.1</v>
+      <c r="I7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
@@ -12882,20 +12867,16 @@
       <c r="D8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="17">
-        <f t="shared" si="1"/>
-        <v>-0.1</v>
+      <c r="I8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="K8" s="24"/>
     </row>
@@ -12910,20 +12891,16 @@
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="17">
-        <f t="shared" si="1"/>
-        <v>-0.1</v>
+      <c r="I9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="K9" s="4" t="s">
         <v>9</v>
@@ -13001,22 +12978,16 @@
         <f t="shared" si="3"/>
         <v>Arbeit</v>
       </c>
-      <c r="E12" s="16">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="G12" s="16">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I12" s="17">
-        <f t="shared" si="1"/>
-        <v>0.23333333333333331</v>
+        <v>0</v>
+      </c>
+      <c r="I12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="K12" s="24"/>
     </row>
@@ -13032,22 +13003,16 @@
         <f t="shared" si="3"/>
         <v>Arbeit</v>
       </c>
-      <c r="E13" s="16">
-        <v>0.3125</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="G13" s="16">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
-        <v>0.27083333333333326</v>
-      </c>
-      <c r="I13" s="17">
-        <f t="shared" si="1"/>
-        <v>0.17083333333333325</v>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="K13" s="4" t="s">
         <v>11</v>
@@ -13069,22 +13034,16 @@
         <f t="shared" si="3"/>
         <v>Arbeit</v>
       </c>
-      <c r="E14" s="16">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
-        <v>0.21874999999999994</v>
-      </c>
-      <c r="I14" s="17">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -13098,20 +13057,16 @@
       <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="17">
-        <f t="shared" si="1"/>
-        <v>-0.1</v>
+      <c r="I15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -13126,22 +13081,16 @@
         <f t="shared" si="3"/>
         <v>Arbeit</v>
       </c>
-      <c r="E16" s="16">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
-        <v>0.21875000000000006</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="1"/>
-        <v>0.11875000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -13536,15 +13485,15 @@
       <c r="F34" s="26"/>
       <c r="G34" s="29">
         <f>SUM(G2:G32)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H34" s="29">
         <f>SUM(H2:H32)</f>
-        <v>1.3749999999999998</v>
+        <v>0</v>
       </c>
       <c r="I34" s="28">
         <f>SUM(I2:I32)</f>
-        <v>0.37499999999999978</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13771,7 +13720,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -14682,7 +14631,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -15618,7 +15567,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -16529,7 +16478,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
@@ -17464,7 +17413,7 @@
       </c>
       <c r="L5" s="17">
         <f>Übersicht!C25</f>
-        <v>0.42708333333333309</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>45</v>
